--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Reversi\java_projects\XlsxDataReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DBE08A-07E5-44F1-8B38-360F7F77B109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB72090-77F1-4264-9CE3-512192DE7E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>23sdf</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,8 +380,8 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
+      <c r="A7">
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
